--- a/templates/import_hwyproj_coding_template.xlsx
+++ b/templates/import_hwyproj_coding_template.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nferguson\Documents\MHN\mhn_programs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mfhrn_programs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8097ED78-ACDD-4EB4-A7A9-645ACCCDB528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CBFCB2-7B7D-4565-8F0E-4332BB01CD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29430" yWindow="-7680" windowWidth="15390" windowHeight="14475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="3" r:id="rId1"/>
-    <sheet name="coding samples" sheetId="1" r:id="rId2"/>
+    <sheet name="coding samples" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
@@ -143,14 +143,41 @@
           <t xml:space="preserve">
 Network processing action code:
 1=modify
-2=replace
 3=delete
 4=add
+(updated by ccai)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cheither:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+New directions code:
+1=one way
+2=two way (attributes in both directions identical)
+3=two way (at least one attribute different in opposing direction) 
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -183,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -216,31 +243,165 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>cheither:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Add signal interconnect to link (code=1).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cheither:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+New time period restrictions code (anode-bnode direction):
+1=open all time periods
+2=open AM periods only
+3=open PM periods only
+4=open off-peak periods only
+5=open peak and shoulder only
+(updated by ccai)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{1EA964D1-7C7F-499D-BD17-A83E13709CCA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cheither:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+New time period restrictions code (bnode-anode direction):
+1=open all time periods
+2=open AM periods only
+3=open PM periods only
+4=open off-peak periods only
+5=open peak and shoulder only
+(updated by ccai)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cheither:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+New speed limit (anode-bnode direction).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cheither:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+New speed limit (bnode-anode direction).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cheither:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+New number of driving lanes (anode-bnode direction).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{11366A84-BD78-4FA8-8312-C2375B3B3C48}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cheither:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+New number of driving lanes (bnode-anode  direction).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -264,103 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>cheither:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-New number of driving lanes (anode-bnode direction).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>cheither:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-New speed limit (anode-bnode direction).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>cheither:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Anode number of link providing attributes.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>cheither:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Bnode number of link providing attributes.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{31DEE9C3-54D5-45D8-8B07-4F33C32750A1}">
       <text>
         <r>
           <rPr>
@@ -384,79 +449,450 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>cheither:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-New number of driving lanes (bnode-anode direction).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>cheither:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-New speed limit (bnode-anode direction).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>cheither:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-New toll amount.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cheither:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Add/remove parking lanes (anode-bnode direction): coded number will be added to parking lanes number currently coded on link in MHN to calculate final lanes (code positive to add, negative to remove).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{369BF497-A840-4A57-B99C-6DA693FE1C93}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cheither:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Add/remove parking lanes (bnode-anode direction): coded number will be added to parking lanes number currently coded on link in MHN to calculate final lanes (code positive to add, negative to remove).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{980D34D7-53E7-4D30-8FC1-1B15A4D36CD1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ccai:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Change parking restriction, as string of affected time periods (currently only 3, 7, and 37). Default of blank means no change.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{53D71FC1-3FAB-4EC8-B4E0-131A1DA916B0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ccai:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Change parking restriction, as string of affected time periods (currently only 3, 7, and 37). Default of blank means no change.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{A62174DB-8593-4A4B-B5FA-05BBBFA641A3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ccai
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Add/remove bus lanes (anode-bnode direction): (code=1 to add, code=-1 to remove).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{49473ED2-4C8C-4314-AB3C-6055EB28E696}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ccai
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Add/remove bus lanes (bnode-anode direction): (code=1 to add, code=-1 to remove).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{84BBB41A-7691-4BAE-BBB4-7CC321A97796}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cheither:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Add/remove signal interconnect flag (code=1 to add, code=-1 to remove).
+(updated by ccai)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cheither:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Add/remove continuous left turn lane (code=1 to add, code=-1 to remove).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cheither:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Add/remove at-grade railroad crossing (code=1 to add, code=-1 to remove).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cheither:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+New toll amount. Can either be a single decimal (ex. 0.16) or a string of eight decimals to represent the eight times of day. 
+-1 means set to 0. 
+(updated by ccai)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cheither:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+New modes permitted code:
+100=all vehicles
+2XX=all vehicles (with truck restrictions from XX applied).
+300=trucks only
+400=transit only (only called for transit networks)
+500=HOV only
+(updated by ccai)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{6D599FE8-4D40-4740-BA7E-9FECB8896316}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ccai 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>New vehicle clearance in inches. 
+-1 means set to 0.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{83CE7FDC-F3AC-49CB-8689-03B192779EFC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ccai:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 means "remove project coding for this project-link combination." Otherwise project coding is used.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>cheither</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{09DB70F1-0AC0-46AF-8C9C-2FA53E12AFDB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cheither:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+TIP project identification number. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Just enter the number: this field is formatted to insert the dashes.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{8F6A7D73-739B-4E7F-8B57-F8DC527959A5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cheither:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Master Highway Network link anode number.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{6AC1C3A8-F18C-4E4A-969C-AAD160056B55}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cheither:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Master Highway Network link bnode number.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{935C4658-B3D2-48DD-A94B-2B7ADF13A736}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cheither:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Network processing action code:
+1=modify
+3=delete
+4=add
+(updated by ccai)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{DAC40D19-91C5-41B9-9AFC-0B8569B2F29A}">
       <text>
         <r>
           <rPr>
@@ -484,79 +920,73 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>cheither:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Add/remove parking lanes (anode-bnode direction): coded number will be added to parking lanes number currently coded on link in MHN to calculate final lanes (code positive to add, negative to remove).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>cheither:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Add/remove parking lanes (bnode-anode direction): coded number will be added to parking lanes number currently coded on link in MHN to calculate final lanes (code positive to add, negative to remove).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>cheither:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Add/remove continuous left turn lane (code=1 to add, code=-1 to remove).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{937A5FC2-055B-4FD3-92CD-7B697E8BB9DA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cheither:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+New facility type code (anode-bnode direction):
+1=arterial
+2=freeway
+3=freeway-arterial ramp
+4=expressway
+5=freeway-freeway ramp
+6=centroid connector
+7=toll facility
+8= metered freeway entrance ramp
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{DBFCD89E-D488-492B-8770-55FBBC8CB7BA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cheither:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+New facility type code (bnode-anode direction):
+1=arterial
+2=freeway
+3=freeway-arterial ramp
+4=expressway
+5=freeway-freeway ramp
+6=centroid connector
+7=toll facility
+8= metered freeway entrance ramp
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{7BD3AD89-E6CA-4F6C-8209-EB56AE481383}">
       <text>
         <r>
           <rPr>
@@ -581,11 +1011,13 @@
 2=open AM periods only
 3=open PM periods only
 4=open off-peak periods only
+5=open peak and shoulder only
+(updated by ccai)
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{68AF4B3C-BEA8-4992-B41F-26F565A7D963}">
       <text>
         <r>
           <rPr>
@@ -610,11 +1042,401 @@
 2=open AM periods only
 3=open PM periods only
 4=open off-peak periods only
+5=open peak and shoulder only
+(updated by ccai)
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{B847612C-0473-4DEC-9160-2793EF8818C2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cheither:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+New speed limit (anode-bnode direction).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{A8341A6A-45F6-434C-8266-FEF28E052750}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cheither:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+New speed limit (bnode-anode direction).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{838C2E49-FC55-434A-B225-88FBE693F3BD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cheither:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+New number of driving lanes (anode-bnode direction).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{F7715339-7A43-4B13-897D-1F627CC1B3F5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cheither:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+New number of driving lanes (bnode-anode  direction).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{11E601C5-6B84-4756-9C8E-99C9EFA44C21}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cheither:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+New average driving lane width (anode-bnode direction).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{276CF2C6-38E1-4F9D-AFF8-D6224FE35FCD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cheither:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+New average driving lane width (bnode-anode direction).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{D458C7D6-8048-4853-B5A9-A8D4A25729FB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cheither:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Add/remove parking lanes (anode-bnode direction): coded number will be added to parking lanes number currently coded on link in MHN to calculate final lanes (code positive to add, negative to remove).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{653525E9-4EB4-4C4E-AE00-5E731E3898F4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cheither:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Add/remove parking lanes (bnode-anode direction): coded number will be added to parking lanes number currently coded on link in MHN to calculate final lanes (code positive to add, negative to remove).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{636165B6-C96A-4C8A-A517-C03D59E85C27}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ccai:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Change parking restriction, as string of affected time periods (currently only 3, 7, and 37). Default of blank means no change.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{FEAA71DA-782D-4BFF-8518-F18AFCAA7294}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ccai:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Change parking restriction, as string of affected time periods (currently only 3, 7, and 37). Default of blank means no change.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{7CC52F8A-84B8-490F-84FF-96B4EDCB2884}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ccai
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Add/remove bus lanes (anode-bnode direction): (code=1 to add, code=-1 to remove).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{3E6522FE-980F-4C6E-A71F-94E389740495}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ccai
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Add/remove bus lanes (bnode-anode direction): (code=1 to add, code=-1 to remove).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{6E0E7850-24B0-4968-B156-00823CED1F1C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cheither:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Add/remove signal interconnect flag (code=1 to add, code=-1 to remove).
+(updated by ccai)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{B9AC53C4-D0AC-44BD-893B-4F647D2DB903}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cheither:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Add/remove continuous left turn lane (code=1 to add, code=-1 to remove).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{91538959-094D-47DC-9547-D2F5A168148D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cheither:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Add/remove at-grade railroad crossing (code=1 to add, code=-1 to remove).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{3390CEE3-82AB-43D6-A28D-D5C015D5AF31}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cheither:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+New toll amount. Can either be a single decimal (ex. 0.16) or a string of eight decimals to represent the eight times of day. 
+-1 means set to 0. 
+(updated by ccai)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{95D9E720-F411-447D-B08D-8CC5BB76E983}">
       <text>
         <r>
           <rPr>
@@ -635,88 +1457,61 @@
           </rPr>
           <t xml:space="preserve">
 New modes permitted code:
-1=all vehicles
-2=all vehicles (with truck restrictions from </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>TRUCKRES</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> link attribute applied)
-3=trucks only
-4=transit only (only called for transit networks)
-5=HOV only
+100=all vehicles
+2XX=all vehicles (with truck restrictions from XX applied).
+300=trucks only
+400=transit only (only called for transit networks)
+500=HOV only
+(updated by ccai)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{0532AC67-A599-46A5-90EC-A9EFBC0B53BB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ccai 
 </t>
         </r>
-      </text>
-    </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>cheither:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Add/remove at-grade railroad crossing (code=1 to add, code=-1 to remove).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>cheither:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Highway time-of-day code indicating specific time periods when changes are applied. Default of blank or 0 means changes applied to all periods. Code is text string of affected time periods:
-1=8 PM – 6 AM
-2=6 AM – 7 AM
-3=7 AM – 9 AM
-4=9 AM – 10 AM
-5=10 AM – 2 PM
-6=2 PM – 4 PM
-7=4 PM – 6 PM
-8=6 PM – 8 PM
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>New vehicle clearance in inches. 
+-1 means set to 0.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{F4343A9B-0A23-43F2-85E3-EBA52E6948B8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ccai:
 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 means "remove project coding for this project-link combination." Otherwise project coding is used.</t>
         </r>
       </text>
     </comment>
@@ -725,7 +1520,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>tipid</t>
   </si>
@@ -757,12 +1552,6 @@
     <t>speed1</t>
   </si>
   <si>
-    <t>rep_anode</t>
-  </si>
-  <si>
-    <t>rep_bnode</t>
-  </si>
-  <si>
     <t>feet2</t>
   </si>
   <si>
@@ -796,10 +1585,25 @@
     <t>modes</t>
   </si>
   <si>
-    <t>rr_grade_sep</t>
-  </si>
-  <si>
-    <t>tod</t>
+    <t>parkres1</t>
+  </si>
+  <si>
+    <t>parkres2</t>
+  </si>
+  <si>
+    <t>buslanes1</t>
+  </si>
+  <si>
+    <t>buslanes2</t>
+  </si>
+  <si>
+    <t>vclearance</t>
+  </si>
+  <si>
+    <t>rrgradex</t>
+  </si>
+  <si>
+    <t>remove</t>
   </si>
 </sst>
 </file>
@@ -828,10 +1632,8 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -843,7 +1645,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -866,17 +1668,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -887,12 +1678,6 @@
       <alignment textRotation="255"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="255"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -901,6 +1686,12 @@
       <alignment textRotation="255"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -919,9 +1710,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -959,9 +1750,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -994,26 +1785,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1046,26 +1820,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1242,101 +1999,124 @@
   <sheetPr>
     <tabColor indexed="50"/>
   </sheetPr>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="5" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" style="6"/>
-    <col min="4" max="10" width="6.6640625" style="6" customWidth="1"/>
-    <col min="11" max="12" width="9.109375" style="6"/>
-    <col min="13" max="15" width="6.6640625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="9.109375" style="8"/>
-    <col min="17" max="23" width="6.6640625" style="6" customWidth="1"/>
-    <col min="24" max="25" width="9.109375" style="6"/>
+    <col min="1" max="1" width="11.7109375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="4"/>
+    <col min="4" max="17" width="6.7109375" style="4" customWidth="1"/>
+    <col min="18" max="19" width="6.7109375" customWidth="1"/>
+    <col min="20" max="23" width="6.7109375" style="4" customWidth="1"/>
+    <col min="24" max="24" width="6.85546875" style="6" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" style="4" customWidth="1"/>
+    <col min="26" max="27" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:28" ht="162.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
+      <c r="H1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="AA1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="X15" s="4"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="X16" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -1348,74 +2128,74 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F92F352-B72C-4E5D-BEC2-38663633EA51}">
   <sheetPr>
-    <tabColor indexed="51"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="5" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" style="6"/>
-    <col min="4" max="10" width="6.6640625" style="6" customWidth="1"/>
-    <col min="11" max="12" width="9.109375" style="6"/>
-    <col min="13" max="15" width="6.6640625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="9.109375" style="6"/>
-    <col min="17" max="23" width="6.6640625" style="6" customWidth="1"/>
-    <col min="24" max="25" width="9.109375" style="6"/>
+    <col min="1" max="1" width="11.7109375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="4"/>
+    <col min="4" max="17" width="6.7109375" style="4" customWidth="1"/>
+    <col min="18" max="19" width="6.7109375" customWidth="1"/>
+    <col min="20" max="23" width="6.7109375" style="4" customWidth="1"/>
+    <col min="24" max="24" width="6.85546875" style="6" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" style="4" customWidth="1"/>
+    <col min="26" max="27" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:28" ht="162.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
+      <c r="H1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>15</v>
@@ -1423,204 +2203,203 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>24</v>
+      <c r="AA1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>1940020</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>15447</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>15446</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="H2" s="6">
+      <c r="N2" s="4">
         <v>12</v>
       </c>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>10030002</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>12542</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>12246</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="I3" s="6">
+      <c r="L3" s="4">
         <v>2</v>
       </c>
-      <c r="T3" s="6">
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="W3" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>10030002</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>12542</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>12631</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="6">
+      <c r="L4" s="4">
         <v>2</v>
       </c>
-      <c r="T4" s="6">
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="W4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>10030002</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>12694</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>12631</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="I5" s="6">
+      <c r="L5" s="4">
         <v>2</v>
       </c>
-      <c r="T5" s="6">
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="W5" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>10030003</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>9420</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>9444</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>4</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="6">
+      <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>55</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2</v>
+      </c>
+      <c r="N6" s="4">
         <v>12</v>
       </c>
-      <c r="I6" s="6">
-        <v>2</v>
-      </c>
-      <c r="J6" s="6">
-        <v>55</v>
-      </c>
-      <c r="T6" s="6">
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="V6" s="4">
         <v>1</v>
       </c>
-      <c r="U6" s="6">
+      <c r="W6" s="4">
         <v>1</v>
       </c>
-      <c r="W6" s="6">
-        <v>1</v>
+      <c r="Z6" s="4">
+        <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>10030003</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>9362</v>
       </c>
-      <c r="C7" s="6">
-        <v>9444</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2</v>
-      </c>
-      <c r="K7" s="6">
-        <v>9362</v>
-      </c>
-      <c r="L7" s="6">
+      <c r="C7" s="4">
         <v>9615</v>
       </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>10030003</v>
-      </c>
-      <c r="B8" s="6">
-        <v>9444</v>
-      </c>
-      <c r="C8" s="6">
-        <v>9615</v>
-      </c>
-      <c r="D8" s="6">
-        <v>2</v>
-      </c>
-      <c r="K8" s="6">
-        <v>9362</v>
-      </c>
-      <c r="L8" s="6">
-        <v>9615</v>
-      </c>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="X15" s="4"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>10030003</v>
-      </c>
-      <c r="B9" s="6">
-        <v>9362</v>
-      </c>
-      <c r="C9" s="6">
-        <v>9615</v>
-      </c>
-      <c r="D9" s="6">
-        <v>3</v>
-      </c>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="X16" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1739,18 +2518,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1770,6 +2549,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13E6FCDC-4849-4A1C-91D8-DBC3C0B7A18B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C100D16E-ECA7-4DBA-A822-394F151CF5C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1782,12 +2569,4 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13E6FCDC-4849-4A1C-91D8-DBC3C0B7A18B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>